--- a/backend/timesheet.xlsx
+++ b/backend/timesheet.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -560,9 +560,32 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>airesfrederico@gmail.com</v>
+      </c>
+      <c r="B8" t="str">
+        <v>amazon</v>
+      </c>
+      <c r="C8" t="str">
+        <v>nj</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2025-09-18 - 2025-09-25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/timesheet.xlsx
+++ b/backend/timesheet.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -583,9 +583,78 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>airesfrederico@gmail.com</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="str">
+        <v>b</v>
+      </c>
+      <c r="E9" t="str">
+        <v>a</v>
+      </c>
+      <c r="F9" t="str">
+        <v>09/18–09/25</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Charlie@honeydewconsulting.com</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <v>WI</v>
+      </c>
+      <c r="E10" t="str">
+        <v>RightSourcing (Atrium)</v>
+      </c>
+      <c r="F10" t="str">
+        <v>10/19–10/19</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Charlie@honeydewconsulting.com</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="str">
+        <v>WI</v>
+      </c>
+      <c r="E11" t="str">
+        <v>RightSourcing (Atrium)</v>
+      </c>
+      <c r="F11" t="str">
+        <v>09/21–10/05</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G11"/>
   </ignoredErrors>
 </worksheet>
 </file>